--- a/data/TestingReport.xlsx
+++ b/data/TestingReport.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="24">
   <si>
     <t xml:space="preserve">测试结果</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">文档</t>
+  </si>
+  <si>
+    <t xml:space="preserve">参考条文</t>
   </si>
   <si>
     <t xml:space="preserve">测试日期</t>
@@ -54,6 +57,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">华夏新锦远灵活配置混合型证券投资基金基金合同</t>
     </r>
@@ -62,6 +66,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -70,6 +75,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">干净版</t>
     </r>
@@ -78,15 +84,19 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.docx</t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">华夏新锦远灵活配置混合型证券投资基金条文对照表 -clean.docx</t>
+  </si>
+  <si>
     <t xml:space="preserve">空行</t>
   </si>
   <si>
-    <t xml:space="preserve">空白模版栏</t>
+    <t xml:space="preserve">空白模版栏/合同栏</t>
   </si>
   <si>
     <t xml:space="preserve">忽明忽暗的条款内容</t>
@@ -97,6 +107,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Section</t>
     </r>
@@ -105,6 +116,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">错位</t>
     </r>
@@ -147,6 +159,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -167,6 +180,7 @@
       <sz val="10"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -257,9 +271,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7044480</xdr:colOff>
+      <xdr:colOff>7044120</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>4635000</xdr:rowOff>
+      <xdr:rowOff>4634640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -272,8 +286,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2117520" y="277920"/>
-          <a:ext cx="6994800" cy="4519440"/>
+          <a:off x="2088000" y="277920"/>
+          <a:ext cx="6994440" cy="4519080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -294,9 +308,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7027920</xdr:colOff>
+      <xdr:colOff>7027560</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>665640</xdr:rowOff>
+      <xdr:rowOff>665280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -309,8 +323,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2219400" y="5071680"/>
-          <a:ext cx="6876360" cy="442080"/>
+          <a:off x="2189880" y="5071680"/>
+          <a:ext cx="6876000" cy="441720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -331,9 +345,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7326000</xdr:colOff>
+      <xdr:colOff>7325640</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>5644440</xdr:rowOff>
+      <xdr:rowOff>5644080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -346,8 +360,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2121120" y="5994000"/>
-          <a:ext cx="7272720" cy="5526720"/>
+          <a:off x="2091600" y="5994000"/>
+          <a:ext cx="7272360" cy="5526360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -368,9 +382,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7363440</xdr:colOff>
+      <xdr:colOff>7363080</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>4817160</xdr:rowOff>
+      <xdr:rowOff>4816800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -383,8 +397,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2269440" y="11770560"/>
-          <a:ext cx="7161840" cy="4646520"/>
+          <a:off x="2239920" y="11770560"/>
+          <a:ext cx="7161480" cy="4646160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -405,9 +419,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1440</xdr:colOff>
+      <xdr:colOff>1080</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>2051280</xdr:rowOff>
+      <xdr:rowOff>2050920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -420,8 +434,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2121120" y="16739280"/>
-          <a:ext cx="7418520" cy="1950120"/>
+          <a:off x="2091600" y="16739280"/>
+          <a:ext cx="7329600" cy="1949760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -442,9 +456,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7319160</xdr:colOff>
+      <xdr:colOff>7318800</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>1138320</xdr:rowOff>
+      <xdr:rowOff>1137960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -457,8 +471,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2122560" y="19058400"/>
-          <a:ext cx="7264440" cy="936720"/>
+          <a:off x="2093040" y="19058400"/>
+          <a:ext cx="7264080" cy="936360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -479,9 +493,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7022880</xdr:colOff>
+      <xdr:colOff>7022520</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>1344960</xdr:rowOff>
+      <xdr:rowOff>1344600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -494,8 +508,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2467800" y="20429280"/>
-          <a:ext cx="6622920" cy="1105200"/>
+          <a:off x="2438280" y="20429280"/>
+          <a:ext cx="6622560" cy="1104840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -516,9 +530,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7106400</xdr:colOff>
+      <xdr:colOff>7106040</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>4125960</xdr:rowOff>
+      <xdr:rowOff>4125600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -531,8 +545,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2333520" y="21889800"/>
-          <a:ext cx="6840720" cy="3949200"/>
+          <a:off x="2304000" y="21889800"/>
+          <a:ext cx="6840360" cy="3948840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -553,9 +567,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>6222960</xdr:colOff>
+      <xdr:colOff>6222600</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>3256560</xdr:rowOff>
+      <xdr:rowOff>3256200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -568,8 +582,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2269800" y="26105040"/>
-          <a:ext cx="6021000" cy="3102480"/>
+          <a:off x="2240280" y="26105040"/>
+          <a:ext cx="6020640" cy="3102120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -590,9 +604,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7096680</xdr:colOff>
+      <xdr:colOff>7096320</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>560880</xdr:rowOff>
+      <xdr:rowOff>560520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -605,8 +619,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2161440" y="29466000"/>
-          <a:ext cx="7003080" cy="360000"/>
+          <a:off x="2131920" y="29466000"/>
+          <a:ext cx="7002720" cy="359640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -626,10 +640,10 @@
       <xdr:rowOff>66240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>7435080</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>52920</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>983880</xdr:rowOff>
+      <xdr:rowOff>983520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -642,8 +656,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2151000" y="30073680"/>
-          <a:ext cx="7351920" cy="917640"/>
+          <a:off x="2121480" y="30073680"/>
+          <a:ext cx="7351560" cy="917280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -663,10 +677,10 @@
       <xdr:rowOff>173520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>7426080</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>2449080</xdr:rowOff>
+      <xdr:rowOff>2448720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -679,8 +693,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2191320" y="31313880"/>
-          <a:ext cx="7302600" cy="2275560"/>
+          <a:off x="2161800" y="31313880"/>
+          <a:ext cx="7302240" cy="2275200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -700,10 +714,10 @@
       <xdr:rowOff>80280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>7408800</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>26640</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>4558320</xdr:rowOff>
+      <xdr:rowOff>4557960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -716,8 +730,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2230200" y="33791760"/>
-          <a:ext cx="7246440" cy="4478040"/>
+          <a:off x="2200680" y="33791760"/>
+          <a:ext cx="7246080" cy="4477680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -737,20 +751,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.3112244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="105.867346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1428571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="58.9081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="104.617346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="58.1836734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -772,226 +786,267 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AMJ1" s="0"/>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="368.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="n">
         <v>43161</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="80.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3" t="n">
         <v>43161</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="450.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3" t="n">
         <v>43161</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="396.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3" t="n">
         <v>43161</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="174.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="3" t="n">
         <v>43161</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="104.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="3" t="n">
         <v>43161</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="119.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="3" t="n">
         <v>43161</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="333.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="3" t="n">
         <v>43161</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="260.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="3" t="n">
         <v>43161</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="58.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="3" t="n">
         <v>43161</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="89.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="3" t="n">
         <v>43161</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="202.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="3" t="n">
         <v>43161</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="365.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="3" t="n">
         <v>43161</v>
       </c>
     </row>

--- a/data/TestingReport.xlsx
+++ b/data/TestingReport.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="26">
   <si>
     <t xml:space="preserve">测试结果</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">参考条文</t>
+  </si>
+  <si>
+    <t xml:space="preserve">注释</t>
   </si>
   <si>
     <t xml:space="preserve">测试日期</t>
@@ -93,13 +96,13 @@
     <t xml:space="preserve">华夏新锦远灵活配置混合型证券投资基金条文对照表 -clean.docx</t>
   </si>
   <si>
+    <t xml:space="preserve">不存在</t>
+  </si>
+  <si>
     <t xml:space="preserve">空行</t>
   </si>
   <si>
     <t xml:space="preserve">空白模版栏/合同栏</t>
-  </si>
-  <si>
-    <t xml:space="preserve">忽明忽暗的条款内容</t>
   </si>
   <si>
     <r>
@@ -122,6 +125,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">存在</t>
+  </si>
+  <si>
     <t xml:space="preserve">删除不完全</t>
   </si>
   <si>
@@ -154,7 +160,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -177,7 +183,23 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="10"/>
+      <color rgb="FF800000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF800000"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
       <charset val="1"/>
@@ -231,16 +253,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -271,9 +305,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7044120</xdr:colOff>
+      <xdr:colOff>7043760</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>4634640</xdr:rowOff>
+      <xdr:rowOff>4634280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -286,8 +320,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2088000" y="277920"/>
-          <a:ext cx="6994440" cy="4519080"/>
+          <a:off x="2059200" y="277920"/>
+          <a:ext cx="6994080" cy="4518720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -308,9 +342,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7027560</xdr:colOff>
+      <xdr:colOff>7027200</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>665280</xdr:rowOff>
+      <xdr:rowOff>664920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -323,8 +357,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2189880" y="5071680"/>
-          <a:ext cx="6876000" cy="441720"/>
+          <a:off x="2161080" y="5071680"/>
+          <a:ext cx="6875640" cy="441360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -344,10 +378,10 @@
       <xdr:rowOff>117720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>7325640</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>29160</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>5644080</xdr:rowOff>
+      <xdr:rowOff>5643720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -360,8 +394,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2091600" y="5994000"/>
-          <a:ext cx="7272360" cy="5526360"/>
+          <a:off x="2062800" y="5994000"/>
+          <a:ext cx="7272000" cy="5526000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -381,10 +415,10 @@
       <xdr:rowOff>170640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>7363080</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>4816800</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1264680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -397,8 +431,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2239920" y="11770560"/>
-          <a:ext cx="7161480" cy="4646160"/>
+          <a:off x="2211120" y="11770560"/>
+          <a:ext cx="7161120" cy="4645800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -414,51 +448,51 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>53280</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>101160</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>64440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7296840</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2013840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 5" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2062800" y="16739280"/>
+          <a:ext cx="7243560" cy="1949400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>54720</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2383560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1080</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>2050920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Image 5" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2091600" y="16739280"/>
-          <a:ext cx="7329600" cy="1949760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>54720</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>201600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>7318800</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1137960</xdr:rowOff>
+      <xdr:colOff>22320</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>3319560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -471,8 +505,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2093040" y="19058400"/>
-          <a:ext cx="7264080" cy="936360"/>
+          <a:off x="2064240" y="19058400"/>
+          <a:ext cx="7263720" cy="936000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -489,13 +523,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>399960</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>239760</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>7022520</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1344600</xdr:rowOff>
+      <xdr:rowOff>3754440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7022160</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>621000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -508,8 +542,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438280" y="20429280"/>
-          <a:ext cx="6622560" cy="1104840"/>
+          <a:off x="2409480" y="20429280"/>
+          <a:ext cx="6622200" cy="1104480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -526,13 +560,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>265680</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>7106040</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>4125600</xdr:rowOff>
+      <xdr:rowOff>977040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7105680</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>869040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -545,8 +579,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2304000" y="21889800"/>
-          <a:ext cx="6840360" cy="3948840"/>
+          <a:off x="2275200" y="21889800"/>
+          <a:ext cx="6840000" cy="3948480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -562,14 +596,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>201960</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>154080</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>6222600</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>3256200</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6222240</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>533520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -582,8 +616,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2240280" y="26105040"/>
-          <a:ext cx="6020640" cy="3102120"/>
+          <a:off x="2211480" y="26105040"/>
+          <a:ext cx="6020280" cy="3101760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -599,14 +633,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>93600</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>200880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>7096320</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>560520</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>792720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7095960</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1152000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -619,8 +653,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2131920" y="29466000"/>
-          <a:ext cx="7002720" cy="359640"/>
+          <a:off x="2103120" y="29466000"/>
+          <a:ext cx="7002360" cy="359280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -636,14 +670,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>83160</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1400400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>52920</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>983520</xdr:rowOff>
+      <xdr:colOff>52560</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2317320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -656,8 +690,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2121480" y="30073680"/>
-          <a:ext cx="7351560" cy="917280"/>
+          <a:off x="2092680" y="30073680"/>
+          <a:ext cx="7265520" cy="916920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -674,13 +708,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>123480</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>173520</xdr:rowOff>
+      <xdr:rowOff>2640600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>2448720</xdr:rowOff>
+      <xdr:colOff>43560</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -693,8 +727,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2161800" y="31313880"/>
-          <a:ext cx="7302240" cy="2275200"/>
+          <a:off x="2133000" y="31313880"/>
+          <a:ext cx="7216200" cy="2274840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -710,14 +744,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>162360</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>155520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>26640</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>4557960</xdr:rowOff>
+      <xdr:colOff>26280</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>81000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -730,8 +764,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2200680" y="33791760"/>
-          <a:ext cx="7246080" cy="4477680"/>
+          <a:off x="2171880" y="33791760"/>
+          <a:ext cx="7160040" cy="4477320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -751,302 +785,303 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="104.617346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="58.1836734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="103.40306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="368.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3" t="n">
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="6" t="n">
         <v>43161</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="80.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3" t="n">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="6" t="n">
         <v>43161</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="450.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>43161</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="396.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="3" t="n">
-        <v>43161</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="174.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="3" t="n">
-        <v>43161</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="104.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6" t="n">
+        <v>43161</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="174.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>43161</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="104.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6" t="n">
+        <v>43161</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="119.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="3" t="n">
-        <v>43161</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="119.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="3" t="n">
-        <v>43161</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="333.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="3" t="n">
-        <v>43161</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="260.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6" t="n">
+        <v>43161</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="333.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6" t="n">
+        <v>43161</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="260.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6" t="n">
+        <v>43161</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="58.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="3" t="n">
-        <v>43161</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="58.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="3" t="n">
-        <v>43161</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="89.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="3" t="n">
-        <v>43161</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="202.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6" t="n">
+        <v>43161</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="89.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6" t="n">
+        <v>43161</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="202.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6" t="n">
+        <v>43161</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="365.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="3" t="n">
-        <v>43161</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="365.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6" t="n">
         <v>43161</v>
       </c>
     </row>

--- a/data/TestingReport.xlsx
+++ b/data/TestingReport.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="测试内容" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Summary" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="23">
   <si>
     <t xml:space="preserve">测试结果</t>
   </si>
@@ -35,12 +36,6 @@
   </si>
   <si>
     <t xml:space="preserve">文档</t>
-  </si>
-  <si>
-    <t xml:space="preserve">参考条文</t>
-  </si>
-  <si>
-    <t xml:space="preserve">注释</t>
   </si>
   <si>
     <t xml:space="preserve">测试日期</t>
@@ -93,16 +88,34 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">华夏新锦远灵活配置混合型证券投资基金条文对照表 -clean.docx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">不存在</t>
-  </si>
-  <si>
     <t xml:space="preserve">空行</t>
   </si>
   <si>
-    <t xml:space="preserve">空白模版栏/合同栏</t>
+    <t xml:space="preserve">因词语不同的匹配</t>
+  </si>
+  <si>
+    <t xml:space="preserve">章节序号混乱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">文章末尾出现多余文字</t>
+  </si>
+  <si>
+    <t xml:space="preserve">同段文字错位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">我们的错误率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84/91=0.923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">１次</t>
   </si>
   <si>
     <r>
@@ -112,44 +125,22 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Section</t>
+      <t xml:space="preserve">75</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">错位</t>
+      <t xml:space="preserve">次</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">存在</t>
-  </si>
-  <si>
-    <t xml:space="preserve">删除不完全</t>
-  </si>
-  <si>
-    <t xml:space="preserve">删除添加在一行中混乱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">好的例子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">章节序号混乱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">文档本身书写不规范（空格带来的）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">好的匹配</t>
-  </si>
-  <si>
-    <t xml:space="preserve">因词语不同的匹配</t>
-  </si>
-  <si>
-    <t xml:space="preserve">文章末尾惊现文档（貌似我的问题）</t>
+    <t xml:space="preserve">２次</t>
+  </si>
+  <si>
+    <t xml:space="preserve">５次</t>
   </si>
 </sst>
 </file>
@@ -160,7 +151,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -183,10 +174,8 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="10"/>
-      <color rgb="FF800000"/>
-      <name val="Arial"/>
+      <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -194,15 +183,6 @@
       <sz val="10"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF800000"/>
-      <name val="Noto Sans CJK SC Regular"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -253,33 +233,45 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -305,9 +297,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7043760</xdr:colOff>
+      <xdr:colOff>7044120</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>4634280</xdr:rowOff>
+      <xdr:rowOff>4634640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -320,8 +312,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2059200" y="277920"/>
-          <a:ext cx="6994080" cy="4518720"/>
+          <a:off x="2088000" y="277920"/>
+          <a:ext cx="6994440" cy="4519080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -342,9 +334,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7027200</xdr:colOff>
+      <xdr:colOff>7027560</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>664920</xdr:rowOff>
+      <xdr:rowOff>665280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -357,8 +349,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2161080" y="5071680"/>
-          <a:ext cx="6875640" cy="441360"/>
+          <a:off x="2189880" y="5071680"/>
+          <a:ext cx="6876000" cy="441720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -373,19 +365,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>53280</xdr:colOff>
+      <xdr:colOff>103320</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>117720</xdr:rowOff>
+      <xdr:rowOff>146160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>29160</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7264800</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>5643720</xdr:rowOff>
+      <xdr:rowOff>4792320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 3" descr=""/>
+        <xdr:cNvPr id="2" name="Image 4" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -394,8 +386,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2062800" y="5994000"/>
-          <a:ext cx="7272000" cy="5526000"/>
+          <a:off x="2141640" y="6022440"/>
+          <a:ext cx="7161480" cy="4646160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -410,19 +402,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>201600</xdr:colOff>
+      <xdr:colOff>599760</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
+      <xdr:rowOff>13320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1264680</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6620400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>3115440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 4" descr=""/>
+        <xdr:cNvPr id="3" name="Image 9" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -431,8 +423,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2211120" y="11770560"/>
-          <a:ext cx="7161120" cy="4645800"/>
+          <a:off x="2638080" y="10927440"/>
+          <a:ext cx="6020640" cy="3102120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -446,20 +438,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>53280</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>64440</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2014560</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>159480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7296840</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>2013840</xdr:rowOff>
+      <xdr:colOff>7278480</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2434680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Image 5" descr=""/>
+        <xdr:cNvPr id="4" name="Image 12" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -468,8 +460,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2062800" y="16739280"/>
-          <a:ext cx="7243560" cy="1949400"/>
+          <a:off x="2014560" y="14387760"/>
+          <a:ext cx="7302240" cy="2275200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -484,19 +476,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>54720</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>2383560</xdr:rowOff>
+      <xdr:colOff>89280</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>22320</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>3319560</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7335360</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>4573440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Image 6" descr=""/>
+        <xdr:cNvPr id="5" name="Image 13" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -505,8 +497,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2064240" y="19058400"/>
-          <a:ext cx="7263720" cy="936000"/>
+          <a:off x="2127600" y="16895160"/>
+          <a:ext cx="7246080" cy="4477680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -521,19 +513,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>399960</xdr:colOff>
+      <xdr:colOff>281160</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>3754440</xdr:rowOff>
+      <xdr:rowOff>117360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7022160</xdr:colOff>
+      <xdr:colOff>7029720</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>621000</xdr:rowOff>
+      <xdr:rowOff>2880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Image 7" descr=""/>
+        <xdr:cNvPr id="6" name="Image 5" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -542,8 +534,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2409480" y="20429280"/>
-          <a:ext cx="6622200" cy="1104480"/>
+          <a:off x="2319480" y="21554640"/>
+          <a:ext cx="6748560" cy="4952160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -558,19 +550,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>265680</xdr:colOff>
+      <xdr:colOff>89280</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>977040</xdr:rowOff>
+      <xdr:rowOff>148320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7105680</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>869040</xdr:rowOff>
+      <xdr:colOff>7331400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1677600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Image 8" descr=""/>
+        <xdr:cNvPr id="7" name="Image 3" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -579,8 +571,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2275200" y="21889800"/>
-          <a:ext cx="6840000" cy="3948480"/>
+          <a:off x="2127600" y="26652240"/>
+          <a:ext cx="7242120" cy="1529280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -595,19 +587,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>201960</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>2880</xdr:rowOff>
+      <xdr:colOff>437400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>337680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>6222240</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>533520</xdr:rowOff>
+      <xdr:colOff>6394320</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>6210360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Image 9" descr=""/>
+        <xdr:cNvPr id="8" name="Image 6" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -616,8 +608,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2211480" y="26105040"/>
-          <a:ext cx="6020280" cy="3101760"/>
+          <a:off x="2475720" y="28593720"/>
+          <a:ext cx="5956920" cy="5872680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -632,19 +624,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>93600</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>792720</xdr:rowOff>
+      <xdr:colOff>181080</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>77040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7095960</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1152000</xdr:rowOff>
+      <xdr:colOff>6101640</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1022040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Image 10" descr=""/>
+        <xdr:cNvPr id="9" name="Image 7" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -653,8 +645,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2103120" y="29466000"/>
-          <a:ext cx="7002360" cy="359280"/>
+          <a:off x="2219400" y="34746120"/>
+          <a:ext cx="5920560" cy="945000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -669,19 +661,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>83160</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1400400</xdr:rowOff>
+      <xdr:colOff>105120</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>120240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>52560</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>2317320</xdr:rowOff>
+      <xdr:colOff>24480</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>4430880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Image 11" descr=""/>
+        <xdr:cNvPr id="10" name="Image 8" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -690,82 +682,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2092680" y="30073680"/>
-          <a:ext cx="7265520" cy="916920"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>123480</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>2640600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Image 12" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2133000" y="31313880"/>
-          <a:ext cx="7216200" cy="2274840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>162360</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>155520</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>26280</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>81000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Image 13" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2171880" y="33791760"/>
-          <a:ext cx="7160040" cy="4477320"/>
+          <a:off x="2143440" y="35931600"/>
+          <a:ext cx="7301160" cy="4310640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -785,20 +703,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="1:12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="103.40306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="104.617346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="52.8010204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -820,268 +739,192 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="AMJ1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="368.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="368.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="n">
+        <v>43161</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="80.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>43161</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="396.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>43161</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="260.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>43161</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="202.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>43161</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="365.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4" t="n">
         <v>43161</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="80.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+    <row r="8" customFormat="false" ht="398.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="F8" s="4" t="n">
+        <v>43161</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="137.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>43161</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="504.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>43161</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="89.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>43161</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="358.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="6" t="n">
-        <v>43161</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="450.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6" t="n">
-        <v>43161</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="174.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="6" t="n">
-        <v>43161</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="104.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6" t="n">
-        <v>43161</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="119.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6" t="n">
-        <v>43161</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="333.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6" t="n">
-        <v>43161</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="260.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6" t="n">
-        <v>43161</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="58.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6" t="n">
-        <v>43161</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="89.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6" t="n">
-        <v>43161</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="202.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6" t="n">
-        <v>43161</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="365.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6" t="n">
+      <c r="F12" s="4" t="n">
         <v>43161</v>
       </c>
     </row>
@@ -1095,4 +938,89 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.3724489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="true" ht="129.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="146.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/data/TestingReport.xlsx
+++ b/data/TestingReport.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t xml:space="preserve">测试结果</t>
   </si>
@@ -132,6 +132,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">次</t>
     </r>
@@ -141,6 +142,18 @@
   </si>
   <si>
     <t xml:space="preserve">５次</t>
+  </si>
+  <si>
+    <t xml:space="preserve">原条文</t>
+  </si>
+  <si>
+    <t xml:space="preserve">９１行</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生成条文</t>
+  </si>
+  <si>
+    <t xml:space="preserve">４９７行</t>
   </si>
 </sst>
 </file>
@@ -233,7 +246,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -254,12 +267,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -268,10 +277,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -297,9 +302,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7044120</xdr:colOff>
+      <xdr:colOff>7043760</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>4634640</xdr:rowOff>
+      <xdr:rowOff>4634280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -312,8 +317,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2088000" y="277920"/>
-          <a:ext cx="6994440" cy="4519080"/>
+          <a:off x="2059200" y="277920"/>
+          <a:ext cx="6994080" cy="4518720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -334,9 +339,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7027560</xdr:colOff>
+      <xdr:colOff>7027200</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>665280</xdr:rowOff>
+      <xdr:rowOff>664920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -349,8 +354,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2189880" y="5071680"/>
-          <a:ext cx="6876000" cy="441720"/>
+          <a:off x="2161080" y="5071680"/>
+          <a:ext cx="6875640" cy="441360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -371,9 +376,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7264800</xdr:colOff>
+      <xdr:colOff>7264440</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>4792320</xdr:rowOff>
+      <xdr:rowOff>4791960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -386,8 +391,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2141640" y="6022440"/>
-          <a:ext cx="7161480" cy="4646160"/>
+          <a:off x="2112840" y="6022440"/>
+          <a:ext cx="7161120" cy="4645800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -408,9 +413,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>6620400</xdr:colOff>
+      <xdr:colOff>6620040</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>3115440</xdr:rowOff>
+      <xdr:rowOff>3115080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -423,8 +428,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2638080" y="10927440"/>
-          <a:ext cx="6020640" cy="3102120"/>
+          <a:off x="2609280" y="10927440"/>
+          <a:ext cx="6020280" cy="3101760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -438,16 +443,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2014560</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5040</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>159480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7278480</xdr:colOff>
+      <xdr:colOff>7278120</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>2434680</xdr:rowOff>
+      <xdr:rowOff>2434320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -461,7 +466,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2014560" y="14387760"/>
-          <a:ext cx="7302240" cy="2275200"/>
+          <a:ext cx="7273080" cy="2274840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -481,10 +486,10 @@
       <xdr:rowOff>95760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>7335360</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38880</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>4573440</xdr:rowOff>
+      <xdr:rowOff>4573080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -497,8 +502,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2127600" y="16895160"/>
-          <a:ext cx="7246080" cy="4477680"/>
+          <a:off x="2098800" y="16895160"/>
+          <a:ext cx="7245720" cy="4477320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -519,9 +524,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7029720</xdr:colOff>
+      <xdr:colOff>7029360</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>2880</xdr:rowOff>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -534,8 +539,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2319480" y="21554640"/>
-          <a:ext cx="6748560" cy="4952160"/>
+          <a:off x="2290680" y="21554640"/>
+          <a:ext cx="6748200" cy="4951800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -555,10 +560,10 @@
       <xdr:rowOff>148320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>7331400</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>34920</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1677600</xdr:rowOff>
+      <xdr:rowOff>1677240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -571,8 +576,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2127600" y="26652240"/>
-          <a:ext cx="7242120" cy="1529280"/>
+          <a:off x="2098800" y="26652240"/>
+          <a:ext cx="7241760" cy="1528920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -593,9 +598,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>6394320</xdr:colOff>
+      <xdr:colOff>6393960</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>6210360</xdr:rowOff>
+      <xdr:rowOff>6210000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -608,8 +613,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2475720" y="28593720"/>
-          <a:ext cx="5956920" cy="5872680"/>
+          <a:off x="2446920" y="28593720"/>
+          <a:ext cx="5956560" cy="5872320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -630,9 +635,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>6101640</xdr:colOff>
+      <xdr:colOff>6101280</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>1022040</xdr:rowOff>
+      <xdr:rowOff>1021680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -645,8 +650,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2219400" y="34746120"/>
-          <a:ext cx="5920560" cy="945000"/>
+          <a:off x="2190600" y="34746120"/>
+          <a:ext cx="5920200" cy="944640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -667,9 +672,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>24480</xdr:colOff>
+      <xdr:colOff>24120</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>4430880</xdr:rowOff>
+      <xdr:rowOff>4430520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -682,8 +687,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2143440" y="35931600"/>
-          <a:ext cx="7301160" cy="4310640"/>
+          <a:off x="2114640" y="35931600"/>
+          <a:ext cx="7215120" cy="4310280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -711,13 +716,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="104.617346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="52.8010204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="103.40306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="52.2397959183674"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -827,7 +831,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="365.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -844,7 +848,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="398.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -945,29 +949,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.3724489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="true" ht="129.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+    <row r="2" customFormat="false" ht="129.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -975,15 +979,15 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="146.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -994,7 +998,7 @@
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1002,16 +1006,32 @@
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/data/TestingReport.xlsx
+++ b/data/TestingReport.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
   <si>
     <t xml:space="preserve">测试结果</t>
   </si>
@@ -109,10 +109,16 @@
     <t xml:space="preserve">数值</t>
   </si>
   <si>
-    <t xml:space="preserve">我们的错误率</t>
+    <t xml:space="preserve">错误率</t>
   </si>
   <si>
     <t xml:space="preserve">84/91=0.923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">正确率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(91/497)*(497-84)=</t>
   </si>
   <si>
     <t xml:space="preserve">１次</t>
@@ -164,7 +170,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -191,11 +197,6 @@
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Noto Sans CJK SC Regular"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -246,7 +247,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -271,14 +272,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -302,9 +295,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7043760</xdr:colOff>
+      <xdr:colOff>7043400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>4634280</xdr:rowOff>
+      <xdr:rowOff>4633920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -317,8 +310,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2059200" y="277920"/>
-          <a:ext cx="6994080" cy="4518720"/>
+          <a:off x="2030760" y="277920"/>
+          <a:ext cx="6993720" cy="4518360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -339,9 +332,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7027200</xdr:colOff>
+      <xdr:colOff>7026840</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>664920</xdr:rowOff>
+      <xdr:rowOff>664560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -354,8 +347,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2161080" y="5071680"/>
-          <a:ext cx="6875640" cy="441360"/>
+          <a:off x="2132640" y="5071680"/>
+          <a:ext cx="6875280" cy="441000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -375,10 +368,10 @@
       <xdr:rowOff>146160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>7264440</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>44280</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>4791960</xdr:rowOff>
+      <xdr:rowOff>4791600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -391,8 +384,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2112840" y="6022440"/>
-          <a:ext cx="7161120" cy="4645800"/>
+          <a:off x="2084400" y="6022440"/>
+          <a:ext cx="7160760" cy="4645440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -413,9 +406,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>6620040</xdr:colOff>
+      <xdr:colOff>6619680</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>3115080</xdr:rowOff>
+      <xdr:rowOff>3114720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -428,8 +421,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2609280" y="10927440"/>
-          <a:ext cx="6020280" cy="3101760"/>
+          <a:off x="2580840" y="10927440"/>
+          <a:ext cx="6019920" cy="3101400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -449,10 +442,10 @@
       <xdr:rowOff>159480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>7278120</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57960</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>2434320</xdr:rowOff>
+      <xdr:rowOff>2433960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -465,8 +458,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2014560" y="14387760"/>
-          <a:ext cx="7273080" cy="2274840"/>
+          <a:off x="1986120" y="14387760"/>
+          <a:ext cx="7272720" cy="2274480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -487,9 +480,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>38880</xdr:colOff>
+      <xdr:colOff>38520</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>4573080</xdr:rowOff>
+      <xdr:rowOff>4572720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -502,8 +495,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2098800" y="16895160"/>
-          <a:ext cx="7245720" cy="4477320"/>
+          <a:off x="2070360" y="16895160"/>
+          <a:ext cx="7169040" cy="4476960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -524,9 +517,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7029360</xdr:colOff>
+      <xdr:colOff>7029000</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:rowOff>2160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -539,8 +532,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2290680" y="21554640"/>
-          <a:ext cx="6748200" cy="4951800"/>
+          <a:off x="2262240" y="21554640"/>
+          <a:ext cx="6747840" cy="4951440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -561,9 +554,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>34920</xdr:colOff>
+      <xdr:colOff>34560</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1677240</xdr:rowOff>
+      <xdr:rowOff>1676880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -576,8 +569,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2098800" y="26652240"/>
-          <a:ext cx="7241760" cy="1528920"/>
+          <a:off x="2070360" y="26652240"/>
+          <a:ext cx="7165080" cy="1528560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -598,9 +591,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>6393960</xdr:colOff>
+      <xdr:colOff>6393600</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>6210000</xdr:rowOff>
+      <xdr:rowOff>6209640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -613,8 +606,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2446920" y="28593720"/>
-          <a:ext cx="5956560" cy="5872320"/>
+          <a:off x="2418480" y="28593720"/>
+          <a:ext cx="5956200" cy="5871960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -635,9 +628,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>6101280</xdr:colOff>
+      <xdr:colOff>6100920</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>1021680</xdr:rowOff>
+      <xdr:rowOff>1021320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -650,8 +643,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2190600" y="34746120"/>
-          <a:ext cx="5920200" cy="944640"/>
+          <a:off x="2162160" y="34746120"/>
+          <a:ext cx="5919840" cy="944280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -672,9 +665,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>24120</xdr:colOff>
+      <xdr:colOff>23760</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>4430520</xdr:rowOff>
+      <xdr:rowOff>4430160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -687,8 +680,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2114640" y="35931600"/>
-          <a:ext cx="7215120" cy="4310280"/>
+          <a:off x="2086200" y="35931600"/>
+          <a:ext cx="7138440" cy="4309920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -716,12 +709,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="103.40306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="52.2397959183674"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="102.321428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="51.7040816326531"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -949,17 +943,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.9030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.3622448979592"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -970,33 +963,29 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="129.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="129.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="146.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="4" customFormat="false" ht="129.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="146.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>21</v>
@@ -1004,34 +993,50 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="B9" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
